--- a/r4-core-SSNrDisplayNameCorrection/StructureDefinition-at-core-address.xlsx
+++ b/r4-core-SSNrDisplayNameCorrection/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-27T15:29:40+00:00</t>
+    <t>2024-05-10T11:18:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2314,7 +2314,7 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>104</v>
@@ -2428,7 +2428,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>104</v>
@@ -2542,7 +2542,7 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>104</v>
